--- a/data/trans_dic/P19F$noche-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.761371414889574</v>
+        <v>0.7549635016460282</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8524945896879699</v>
+        <v>0.8502766447375307</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8197178797856018</v>
+        <v>0.8175588998156663</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8468870610450964</v>
+        <v>0.8435435972403695</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9156936333296199</v>
+        <v>0.9157317731270721</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8719038097926678</v>
+        <v>0.8702813303833149</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7450341769121982</v>
+        <v>0.7458577052404519</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7734074653448517</v>
+        <v>0.7788223273822563</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7696190148635287</v>
+        <v>0.7724163677042789</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8178561030371821</v>
+        <v>0.8199789898669206</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8441533093268012</v>
+        <v>0.8485957692114754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8220688007382534</v>
+        <v>0.821113521626424</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.61553707593822</v>
+        <v>0.6193629683430205</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6260992999342575</v>
+        <v>0.6164377850519766</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6359612666591891</v>
+        <v>0.6341896030426156</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7155798279380416</v>
+        <v>0.7159725392619712</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7196860616880205</v>
+        <v>0.7167929404786941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7044925729478649</v>
+        <v>0.7020841535655956</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8135220227847909</v>
+        <v>0.8171298348663322</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.808833419134221</v>
+        <v>0.8086103544733897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.819965079071726</v>
+        <v>0.8235384614646432</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8802830261565222</v>
+        <v>0.8793517102956535</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8847101660992382</v>
+        <v>0.8790239511766347</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8698257112802137</v>
+        <v>0.8722284477572736</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>276172</v>
+        <v>273848</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>320666</v>
+        <v>319832</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>605673</v>
+        <v>604078</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>307191</v>
+        <v>305979</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>344438</v>
+        <v>344453</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>644232</v>
+        <v>643033</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>419594</v>
+        <v>420058</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>418092</v>
+        <v>421020</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>849485</v>
+        <v>852572</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>460607</v>
+        <v>461802</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>456337</v>
+        <v>458738</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>907377</v>
+        <v>906323</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>247934</v>
+        <v>249475</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>240273</v>
+        <v>236565</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>500219</v>
+        <v>498826</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>288231</v>
+        <v>288389</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>276188</v>
+        <v>275078</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>554123</v>
+        <v>552229</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>366149</v>
+        <v>367773</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>357538</v>
+        <v>357439</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>731507</v>
+        <v>734695</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>396197</v>
+        <v>395778</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>391078</v>
+        <v>388565</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>775989</v>
+        <v>778132</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
     </row>
     <row r="24">
